--- a/Documents/DataDic-AdventureWorksDW2022.xlsx
+++ b/Documents/DataDic-AdventureWorksDW2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\VS Project\AdventureWorks-Sales-Performance-Data-Analytics-Dashboard\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98752436-CF05-4218-BEC7-35E62D0E2B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1061F62-6BCC-4391-AD64-AAF6DB838343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="3" activeTab="6" xr2:uid="{6B0CFAFB-10D3-4DB1-BA62-493D271D003F}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="25" activeTab="28" xr2:uid="{6B0CFAFB-10D3-4DB1-BA62-493D271D003F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="19" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="1297">
   <si>
     <t>COLUMN_NAME</t>
   </si>
@@ -4213,12 +4213,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
@@ -4228,6 +4222,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5059,10 +5059,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9833CAF6-69AD-4501-9CEE-F4A5DA235C9E}">
-  <dimension ref="B2:I39"/>
+  <dimension ref="A2:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5076,7 +5076,7 @@
     <col min="7" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>708</v>
       </c>
@@ -5084,7 +5084,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
@@ -5107,7 +5110,10 @@
         <v>752</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>709</v>
       </c>
@@ -5130,7 +5136,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>711</v>
       </c>
@@ -5153,7 +5162,10 @@
         <v>783</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B6" s="13" t="s">
         <v>713</v>
       </c>
@@ -5176,7 +5188,10 @@
         <v>784</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>715</v>
       </c>
@@ -5199,7 +5214,10 @@
         <v>785</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>717</v>
       </c>
@@ -5216,7 +5234,10 @@
         <v>718</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>719</v>
       </c>
@@ -5233,7 +5254,10 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>721</v>
       </c>
@@ -5250,7 +5274,10 @@
         <v>722</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>723</v>
       </c>
@@ -5267,7 +5294,10 @@
         <v>724</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>725</v>
       </c>
@@ -5284,7 +5314,10 @@
         <v>726</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>727</v>
       </c>
@@ -5301,7 +5334,10 @@
         <v>728</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>729</v>
       </c>
@@ -5318,7 +5354,10 @@
         <v>730</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>731</v>
       </c>
@@ -5335,7 +5374,10 @@
         <v>732</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>733</v>
       </c>
@@ -5352,7 +5394,10 @@
         <v>734</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>735</v>
       </c>
@@ -5369,7 +5414,10 @@
         <v>736</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>737</v>
       </c>
@@ -5386,7 +5434,10 @@
         <v>738</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>739</v>
       </c>
@@ -5403,7 +5454,10 @@
         <v>740</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>741</v>
       </c>
@@ -5420,7 +5474,10 @@
         <v>743</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>744</v>
       </c>
@@ -5437,7 +5494,10 @@
         <v>745</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>746</v>
       </c>
@@ -5454,7 +5514,10 @@
         <v>747</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>748</v>
       </c>
@@ -5471,7 +5534,10 @@
         <v>749</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>750</v>
       </c>
@@ -5488,7 +5554,10 @@
         <v>751</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>752</v>
       </c>
@@ -5505,7 +5574,10 @@
         <v>753</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>754</v>
       </c>
@@ -5522,7 +5594,10 @@
         <v>755</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>756</v>
       </c>
@@ -5539,7 +5614,10 @@
         <v>757</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>758</v>
       </c>
@@ -5556,7 +5634,10 @@
         <v>759</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>760</v>
       </c>
@@ -5573,7 +5654,10 @@
         <v>761</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>762</v>
       </c>
@@ -5590,7 +5674,10 @@
         <v>763</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>764</v>
       </c>
@@ -5607,7 +5694,10 @@
         <v>765</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>766</v>
       </c>
@@ -5624,7 +5714,10 @@
         <v>767</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>768</v>
       </c>
@@ -5641,7 +5734,10 @@
         <v>769</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>770</v>
       </c>
@@ -5658,7 +5754,10 @@
         <v>771</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>772</v>
       </c>
@@ -5675,7 +5774,10 @@
         <v>773</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>774</v>
       </c>
@@ -5692,7 +5794,10 @@
         <v>775</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>522</v>
       </c>
@@ -5709,7 +5814,10 @@
         <v>777</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>524</v>
       </c>
@@ -5726,7 +5834,10 @@
         <v>778</v>
       </c>
     </row>
-    <row r="39" spans="2:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>526</v>
       </c>
@@ -5753,10 +5864,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA40745-AEB2-449C-AB0E-02D56055F342}">
-  <dimension ref="B2:I39"/>
+  <dimension ref="A2:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5773,7 +5884,7 @@
     <col min="10" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>786</v>
       </c>
@@ -5781,7 +5892,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
@@ -5804,7 +5918,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -5827,7 +5944,10 @@
         <v>792</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -5850,7 +5970,10 @@
         <v>793</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -5873,7 +5996,10 @@
         <v>794</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -5896,7 +6022,10 @@
         <v>795</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -5913,56 +6042,56 @@
         <v>791</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6138,10 +6267,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D64926E-30A2-4B38-B4A3-2E4FE74652A0}">
-  <dimension ref="B2:J44"/>
+  <dimension ref="A2:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6159,7 +6288,7 @@
     <col min="11" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>796</v>
       </c>
@@ -6167,7 +6296,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
@@ -6193,7 +6325,10 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>713</v>
       </c>
@@ -6209,13 +6344,16 @@
       <c r="F4" s="17" t="s">
         <v>797</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="41" t="s">
         <v>792</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>798</v>
       </c>
@@ -6241,7 +6379,10 @@
         <v>807</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>800</v>
       </c>
@@ -6267,7 +6408,10 @@
         <v>808</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>802</v>
       </c>
@@ -6293,7 +6437,10 @@
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>804</v>
       </c>
@@ -6309,13 +6456,16 @@
       <c r="F8" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="41" t="s">
         <v>793</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
@@ -6341,7 +6491,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -6357,7 +6507,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -6373,7 +6523,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -6389,7 +6539,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -6405,7 +6555,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6421,7 +6571,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -6437,7 +6587,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6555,11 +6705,11 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="1"/>
-      <c r="H23" s="39" t="s">
+      <c r="H23" s="41" t="s">
         <v>794</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
@@ -6695,11 +6845,11 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="1"/>
-      <c r="H32" s="39" t="s">
+      <c r="H32" s="41" t="s">
         <v>795</v>
       </c>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
@@ -6902,10 +7052,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC838AB-FA64-42DC-A5FD-152DEACCB6E0}">
-  <dimension ref="B2:K44"/>
+  <dimension ref="A2:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6924,7 +7074,7 @@
     <col min="12" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>844</v>
       </c>
@@ -6932,7 +7082,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
@@ -6961,7 +7114,10 @@
         <v>849</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>845</v>
       </c>
@@ -6990,7 +7146,10 @@
         <v>875</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>847</v>
       </c>
@@ -7019,7 +7178,10 @@
         <v>883</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>849</v>
       </c>
@@ -7048,7 +7210,10 @@
         <v>884</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>851</v>
       </c>
@@ -7077,7 +7242,10 @@
         <v>885</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>853</v>
       </c>
@@ -7106,7 +7274,10 @@
         <v>886</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>855</v>
       </c>
@@ -7135,7 +7306,10 @@
         <v>887</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>857</v>
       </c>
@@ -7164,7 +7338,10 @@
         <v>888</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>859</v>
       </c>
@@ -7193,7 +7370,10 @@
         <v>889</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>861</v>
       </c>
@@ -7222,7 +7402,10 @@
         <v>890</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>863</v>
       </c>
@@ -7251,7 +7434,10 @@
         <v>891</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>865</v>
       </c>
@@ -7280,7 +7466,10 @@
         <v>892</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>867</v>
       </c>
@@ -7309,7 +7498,10 @@
         <v>893</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>522</v>
       </c>
@@ -7338,7 +7530,10 @@
         <v>894</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>524</v>
       </c>
@@ -7367,7 +7562,10 @@
         <v>895</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>871</v>
       </c>
@@ -7396,7 +7594,10 @@
         <v>896</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>873</v>
       </c>
@@ -7425,7 +7626,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -7435,7 +7636,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -7445,7 +7646,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -7455,7 +7656,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -7465,7 +7666,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -7475,7 +7676,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -7485,7 +7686,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -7495,7 +7696,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -7505,7 +7706,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -7515,7 +7716,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -7525,7 +7726,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -7535,7 +7736,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -7545,7 +7746,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -7677,10 +7878,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2F15B6-4D91-4E49-B1D8-FB56A58808DF}">
-  <dimension ref="B2:F43"/>
+  <dimension ref="A2:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -7694,7 +7895,7 @@
     <col min="7" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>898</v>
       </c>
@@ -7702,7 +7903,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
@@ -7719,7 +7923,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>899</v>
       </c>
@@ -7736,7 +7943,10 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B5" s="13" t="s">
         <v>361</v>
       </c>
@@ -7753,7 +7963,10 @@
         <v>901</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>902</v>
       </c>
@@ -7770,7 +7983,10 @@
         <v>903</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>416</v>
       </c>
@@ -7787,7 +8003,10 @@
         <v>904</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>905</v>
       </c>
@@ -7804,7 +8023,10 @@
         <v>907</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>908</v>
       </c>
@@ -7821,7 +8043,10 @@
         <v>909</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>910</v>
       </c>
@@ -7838,7 +8063,10 @@
         <v>911</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>912</v>
       </c>
@@ -7855,7 +8083,10 @@
         <v>914</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>915</v>
       </c>
@@ -7872,7 +8103,10 @@
         <v>916</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>917</v>
       </c>
@@ -7889,7 +8123,10 @@
         <v>918</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>919</v>
       </c>
@@ -7906,7 +8143,10 @@
         <v>920</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>746</v>
       </c>
@@ -7923,7 +8163,10 @@
         <v>921</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>412</v>
       </c>
@@ -7940,7 +8183,10 @@
         <v>922</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>414</v>
       </c>
@@ -7957,7 +8203,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>923</v>
       </c>
@@ -7974,7 +8223,10 @@
         <v>924</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>925</v>
       </c>
@@ -7991,7 +8243,10 @@
         <v>926</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>927</v>
       </c>
@@ -8008,7 +8263,10 @@
         <v>928</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>929</v>
       </c>
@@ -8025,7 +8283,10 @@
         <v>930</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>931</v>
       </c>
@@ -8042,7 +8303,10 @@
         <v>932</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>933</v>
       </c>
@@ -8059,7 +8323,10 @@
         <v>934</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
@@ -8076,56 +8343,56 @@
         <v>936</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -8217,10 +8484,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F1C4BB-068A-4731-A70E-783468725BC8}">
-  <dimension ref="B2:J43"/>
+  <dimension ref="A2:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -8238,7 +8505,7 @@
     <col min="11" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>937</v>
       </c>
@@ -8246,7 +8513,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
@@ -8272,7 +8542,10 @@
         <v>942</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>938</v>
       </c>
@@ -8298,7 +8571,10 @@
         <v>948</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>940</v>
       </c>
@@ -8324,7 +8600,10 @@
         <v>950</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>942</v>
       </c>
@@ -8350,7 +8629,10 @@
         <v>951</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>944</v>
       </c>
@@ -8376,7 +8658,10 @@
         <v>952</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -8402,7 +8687,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -8418,7 +8703,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -8434,7 +8719,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -8450,7 +8735,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -8466,7 +8751,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -8482,21 +8767,21 @@
         <v>947</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -8700,10 +8985,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5568D594-5F19-4ED5-9E5D-D6E0FC5124F9}">
-  <dimension ref="B2:K43"/>
+  <dimension ref="A2:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -8722,7 +9007,7 @@
     <col min="12" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>958</v>
       </c>
@@ -8730,7 +9015,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
@@ -8759,7 +9047,10 @@
         <v>964</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>486</v>
       </c>
@@ -8788,7 +9079,10 @@
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>960</v>
       </c>
@@ -8817,7 +9111,10 @@
         <v>562</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>962</v>
       </c>
@@ -8846,7 +9143,10 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>964</v>
       </c>
@@ -8875,7 +9175,10 @@
         <v>562</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>966</v>
       </c>
@@ -8904,7 +9207,10 @@
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>968</v>
       </c>
@@ -8933,7 +9239,10 @@
         <v>554</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
@@ -8962,7 +9271,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -8981,7 +9290,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -9000,7 +9309,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -9019,7 +9328,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -9038,14 +9347,14 @@
         <v>979</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -9250,10 +9559,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C28ADF7-9913-474D-9C7C-B3B83B1A9776}">
-  <dimension ref="B2:I42"/>
+  <dimension ref="A2:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -9270,7 +9579,7 @@
     <col min="10" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>980</v>
       </c>
@@ -9278,7 +9587,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
@@ -9301,7 +9613,10 @@
         <v>983</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>981</v>
       </c>
@@ -9324,7 +9639,10 @@
         <v>985</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>983</v>
       </c>
@@ -9347,7 +9665,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -9360,7 +9678,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -9369,7 +9687,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -9378,7 +9696,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -9387,7 +9705,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -9396,7 +9714,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -9405,7 +9723,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -9414,7 +9732,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -9423,21 +9741,21 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -9635,10 +9953,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689EB5CC-48FF-4CF6-8DE3-D7253104999A}">
-  <dimension ref="B2:F42"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -9652,7 +9970,7 @@
     <col min="7" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="37" t="s">
         <v>1006</v>
       </c>
@@ -9660,7 +9978,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -9677,7 +9998,10 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>709</v>
       </c>
@@ -9694,7 +10018,10 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>1034</v>
       </c>
@@ -9711,7 +10038,10 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>1036</v>
       </c>
@@ -9728,70 +10058,70 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -9989,10 +10319,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E957E58-BE8A-433C-9286-8D72ACB13BB5}">
-  <dimension ref="B2:F42"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -10006,7 +10336,7 @@
     <col min="7" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>1008</v>
       </c>
@@ -10014,7 +10344,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -10031,7 +10364,10 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>1038</v>
       </c>
@@ -10048,7 +10384,10 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B5" s="13" t="s">
         <v>422</v>
       </c>
@@ -10065,7 +10404,10 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>1041</v>
       </c>
@@ -10082,7 +10424,10 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>1043</v>
       </c>
@@ -10099,7 +10444,10 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>1045</v>
       </c>
@@ -10116,7 +10464,10 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>1047</v>
       </c>
@@ -10133,7 +10484,10 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>1049</v>
       </c>
@@ -10150,7 +10504,10 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>1051</v>
       </c>
@@ -10167,7 +10524,10 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>1053</v>
       </c>
@@ -10184,7 +10544,10 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>1055</v>
       </c>
@@ -10201,7 +10564,10 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>1057</v>
       </c>
@@ -10218,7 +10584,10 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>1059</v>
       </c>
@@ -10235,7 +10604,10 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>1061</v>
       </c>
@@ -10252,7 +10624,10 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>1063</v>
       </c>
@@ -10269,105 +10644,105 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -10485,7 +10860,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>1199</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -10514,7 +10889,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="b">
+      <c r="A4" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -10543,7 +10918,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="b">
+      <c r="A5" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -10572,7 +10947,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="b">
+      <c r="A6" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -10598,7 +10973,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="b">
+      <c r="A7" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -10624,7 +10999,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="b">
+      <c r="A8" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -10650,7 +11025,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="b">
+      <c r="A9" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -10676,7 +11051,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="b">
+      <c r="A10" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -10702,7 +11077,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="b">
+      <c r="A11" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -10728,7 +11103,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="b">
+      <c r="A12" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -10751,7 +11126,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="b">
+      <c r="A13" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -11227,10 +11602,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE4A982-9E42-4BFD-9A05-D54F3EAFB6A5}">
-  <dimension ref="B2:F42"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -11244,7 +11619,7 @@
     <col min="7" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>1010</v>
       </c>
@@ -11252,7 +11627,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -11269,7 +11647,10 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B4" s="13" t="s">
         <v>356</v>
       </c>
@@ -11286,7 +11667,10 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B5" s="13" t="s">
         <v>422</v>
       </c>
@@ -11303,7 +11687,10 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>1066</v>
       </c>
@@ -11320,7 +11707,10 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>1068</v>
       </c>
@@ -11337,7 +11727,10 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>1063</v>
       </c>
@@ -11354,56 +11747,56 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -11601,10 +11994,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E28047-C0EB-4916-AB3C-374437CAE0D4}">
-  <dimension ref="B2:F42"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -11618,7 +12011,7 @@
     <col min="7" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>1012</v>
       </c>
@@ -11626,7 +12019,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -11643,7 +12039,10 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>1071</v>
       </c>
@@ -11660,7 +12059,10 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B5" s="13" t="s">
         <v>422</v>
       </c>
@@ -11677,7 +12079,10 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B6" s="18" t="s">
         <v>687</v>
       </c>
@@ -11694,7 +12099,10 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B7" s="18" t="s">
         <v>464</v>
       </c>
@@ -11711,7 +12119,10 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B8" s="18" t="s">
         <v>981</v>
       </c>
@@ -11728,7 +12139,10 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
@@ -11745,7 +12159,10 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>1077</v>
       </c>
@@ -11762,7 +12179,10 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>1063</v>
       </c>
@@ -11779,35 +12199,35 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -12005,10 +12425,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FA1A68-8579-4C0E-A502-557525EFD622}">
-  <dimension ref="B2:F42"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -12022,7 +12442,7 @@
     <col min="7" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>1014</v>
       </c>
@@ -12030,7 +12450,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -12047,7 +12470,10 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B4" s="13" t="s">
         <v>709</v>
       </c>
@@ -12064,7 +12490,10 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B5" s="13" t="s">
         <v>1081</v>
       </c>
@@ -12081,7 +12510,10 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B6" s="18" t="s">
         <v>1083</v>
       </c>
@@ -12098,7 +12530,10 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B7" s="18" t="s">
         <v>1085</v>
       </c>
@@ -12115,7 +12550,10 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B8" s="18" t="s">
         <v>360</v>
       </c>
@@ -12132,7 +12570,10 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B9" s="18" t="s">
         <v>845</v>
       </c>
@@ -12149,7 +12590,10 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B10" s="18" t="s">
         <v>356</v>
       </c>
@@ -12166,7 +12610,10 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B11" s="18" t="s">
         <v>486</v>
       </c>
@@ -12183,7 +12630,10 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B12" s="17" t="s">
         <v>1090</v>
       </c>
@@ -12200,7 +12650,10 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>1092</v>
       </c>
@@ -12217,7 +12670,10 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>1094</v>
       </c>
@@ -12234,7 +12690,10 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>1096</v>
       </c>
@@ -12251,7 +12710,10 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>1098</v>
       </c>
@@ -12268,7 +12730,10 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>1100</v>
       </c>
@@ -12285,7 +12750,10 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>1102</v>
       </c>
@@ -12302,7 +12770,10 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>1104</v>
       </c>
@@ -12319,7 +12790,10 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>1106</v>
       </c>
@@ -12336,7 +12810,10 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>1108</v>
       </c>
@@ -12353,7 +12830,10 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>1110</v>
       </c>
@@ -12370,7 +12850,10 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>1112</v>
       </c>
@@ -12387,7 +12870,10 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>1114</v>
       </c>
@@ -12404,7 +12890,10 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>1116</v>
       </c>
@@ -12421,7 +12910,10 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>1118</v>
       </c>
@@ -12438,7 +12930,10 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>1120</v>
       </c>
@@ -12455,7 +12950,10 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>1122</v>
       </c>
@@ -12472,7 +12970,10 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>1124</v>
       </c>
@@ -12489,21 +12990,21 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -12589,10 +13090,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA41B8F-97F7-498E-9E7F-D7EA02C336F5}">
-  <dimension ref="B2:F42"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -12606,7 +13107,7 @@
     <col min="7" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>1016</v>
       </c>
@@ -12614,7 +13115,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -12631,7 +13135,10 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>1090</v>
       </c>
@@ -12648,7 +13155,10 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>1092</v>
       </c>
@@ -12665,7 +13175,10 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B6" s="18" t="s">
         <v>938</v>
       </c>
@@ -12682,70 +13195,70 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -12943,10 +13456,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3BC228-B176-4BAF-A9CE-32BC09CA4F16}">
-  <dimension ref="B2:F42"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -12960,7 +13473,7 @@
     <col min="7" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>1018</v>
       </c>
@@ -12968,7 +13481,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -12985,7 +13501,10 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B4" s="13" t="s">
         <v>709</v>
       </c>
@@ -13002,7 +13521,10 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B5" s="13" t="s">
         <v>422</v>
       </c>
@@ -13019,7 +13541,10 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>1127</v>
       </c>
@@ -13036,7 +13561,10 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>1129</v>
       </c>
@@ -13053,7 +13581,10 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>1131</v>
       </c>
@@ -13070,7 +13601,10 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>1133</v>
       </c>
@@ -13087,7 +13621,10 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>1135</v>
       </c>
@@ -13104,42 +13641,42 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -13337,10 +13874,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91848D5-26A8-44B1-9F46-9F8F2EA6A4B1}">
-  <dimension ref="B2:F42"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -13354,7 +13891,7 @@
     <col min="7" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>1020</v>
       </c>
@@ -13362,7 +13899,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -13379,7 +13919,10 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B4" s="13" t="s">
         <v>709</v>
       </c>
@@ -13396,7 +13939,10 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B5" s="13" t="s">
         <v>1081</v>
       </c>
@@ -13413,7 +13959,10 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B6" s="18" t="s">
         <v>1083</v>
       </c>
@@ -13430,7 +13979,10 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B7" s="18" t="s">
         <v>1085</v>
       </c>
@@ -13447,7 +13999,10 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B8" s="18" t="s">
         <v>899</v>
       </c>
@@ -13464,7 +14019,10 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B9" s="18" t="s">
         <v>478</v>
       </c>
@@ -13481,7 +14039,10 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B10" s="18" t="s">
         <v>845</v>
       </c>
@@ -13498,7 +14059,10 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B11" s="18" t="s">
         <v>356</v>
       </c>
@@ -13515,7 +14079,10 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B12" s="18" t="s">
         <v>486</v>
       </c>
@@ -13532,7 +14099,10 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>1090</v>
       </c>
@@ -13549,7 +14119,10 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>1092</v>
       </c>
@@ -13566,7 +14139,10 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>1094</v>
       </c>
@@ -13583,7 +14159,10 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>1096</v>
       </c>
@@ -13600,7 +14179,10 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>1098</v>
       </c>
@@ -13617,7 +14199,10 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>1100</v>
       </c>
@@ -13634,7 +14219,10 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>1102</v>
       </c>
@@ -13651,7 +14239,10 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>1104</v>
       </c>
@@ -13668,7 +14259,10 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>1106</v>
       </c>
@@ -13685,7 +14279,10 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>1108</v>
       </c>
@@ -13702,7 +14299,10 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>1110</v>
       </c>
@@ -13719,7 +14319,10 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>1112</v>
       </c>
@@ -13736,7 +14339,10 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>1114</v>
       </c>
@@ -13753,7 +14359,10 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>1116</v>
       </c>
@@ -13770,7 +14379,10 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>1118</v>
       </c>
@@ -13787,7 +14399,10 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>1120</v>
       </c>
@@ -13804,7 +14419,10 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>1122</v>
       </c>
@@ -13821,7 +14439,10 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>1124</v>
       </c>
@@ -13838,14 +14459,14 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -13931,10 +14552,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F09351A-3F41-4FEE-B4ED-515393E04E29}">
-  <dimension ref="B2:F42"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -13948,7 +14569,7 @@
     <col min="7" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>1022</v>
       </c>
@@ -13956,7 +14577,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -13973,7 +14597,10 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>1150</v>
       </c>
@@ -13990,7 +14617,10 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B5" s="13" t="s">
         <v>478</v>
       </c>
@@ -14007,7 +14637,10 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B6" s="18" t="s">
         <v>422</v>
       </c>
@@ -14024,7 +14657,10 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>451</v>
       </c>
@@ -14041,7 +14677,10 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>449</v>
       </c>
@@ -14058,7 +14697,10 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>1154</v>
       </c>
@@ -14075,7 +14717,10 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>1063</v>
       </c>
@@ -14092,42 +14737,42 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -14325,10 +14970,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA333406-5097-4FF8-91CC-69ADEDA15D0F}">
-  <dimension ref="B2:F42"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -14342,7 +14987,7 @@
     <col min="7" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>1024</v>
       </c>
@@ -14350,7 +14995,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -14367,7 +15015,10 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>1157</v>
       </c>
@@ -14384,7 +15035,10 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B5" s="13" t="s">
         <v>422</v>
       </c>
@@ -14401,7 +15055,10 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B6" s="18" t="s">
         <v>360</v>
       </c>
@@ -14418,7 +15075,10 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
@@ -14435,7 +15095,10 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -14452,7 +15115,10 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B9" s="18" t="s">
         <v>713</v>
       </c>
@@ -14469,7 +15135,10 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>800</v>
       </c>
@@ -14486,7 +15155,10 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>1063</v>
       </c>
@@ -14503,35 +15175,35 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -14729,10 +15401,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9357B8-BE86-47E8-A48A-D222AFF943EC}">
-  <dimension ref="B2:F42"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -14746,7 +15418,7 @@
     <col min="7" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>1026</v>
       </c>
@@ -14754,7 +15426,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -14771,7 +15446,10 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>1066</v>
       </c>
@@ -14788,7 +15466,10 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>1166</v>
       </c>
@@ -14805,7 +15486,10 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>1168</v>
       </c>
@@ -14822,7 +15506,10 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>1068</v>
       </c>
@@ -14839,7 +15526,10 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B8" s="18" t="s">
         <v>356</v>
       </c>
@@ -14856,7 +15546,10 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B9" s="18" t="s">
         <v>422</v>
       </c>
@@ -14873,49 +15566,49 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -15113,10 +15806,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7EA164-1D6C-486C-A922-39E2C0284F21}">
-  <dimension ref="B2:F42"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -15130,7 +15823,7 @@
     <col min="7" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>1028</v>
       </c>
@@ -15138,7 +15831,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -15155,7 +15851,10 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>1171</v>
       </c>
@@ -15172,7 +15871,10 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>1173</v>
       </c>
@@ -15189,7 +15891,10 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>368</v>
       </c>
@@ -15206,7 +15911,10 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>370</v>
       </c>
@@ -15223,7 +15931,10 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>372</v>
       </c>
@@ -15240,7 +15951,10 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>377</v>
       </c>
@@ -15257,7 +15971,10 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>380</v>
       </c>
@@ -15274,7 +15991,10 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>384</v>
       </c>
@@ -15291,7 +16011,10 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>386</v>
       </c>
@@ -15308,7 +16031,10 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>388</v>
       </c>
@@ -15325,7 +16051,10 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>391</v>
       </c>
@@ -15342,7 +16071,10 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>394</v>
       </c>
@@ -15359,7 +16091,10 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>1185</v>
       </c>
@@ -15376,7 +16111,10 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>1187</v>
       </c>
@@ -15393,7 +16131,10 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>408</v>
       </c>
@@ -15410,7 +16151,10 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>410</v>
       </c>
@@ -15427,7 +16171,10 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>412</v>
       </c>
@@ -15444,7 +16191,10 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>414</v>
       </c>
@@ -15461,7 +16211,10 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>532</v>
       </c>
@@ -15478,7 +16231,10 @@
         <v>532</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>534</v>
       </c>
@@ -15495,7 +16251,10 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>546</v>
       </c>
@@ -15512,7 +16271,10 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>416</v>
       </c>
@@ -15529,7 +16291,10 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>1195</v>
       </c>
@@ -15546,7 +16311,10 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>1197</v>
       </c>
@@ -15563,35 +16331,35 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -15705,7 +16473,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>1199</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -15728,7 +16496,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="b">
+      <c r="A4" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -15751,7 +16519,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="b">
+      <c r="A5" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -15774,7 +16542,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="b">
+      <c r="A6" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -16652,7 +17420,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>1199</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -16681,7 +17449,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="b">
+      <c r="A4" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -16710,7 +17478,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="b">
+      <c r="A5" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -16739,7 +17507,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="b">
+      <c r="A6" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -16768,7 +17536,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="b">
+      <c r="A7" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -16797,7 +17565,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="b">
+      <c r="A8" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -16826,7 +17594,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="b">
+      <c r="A9" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -16846,7 +17614,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="b">
+      <c r="A10" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -16866,7 +17634,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="b">
+      <c r="A11" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -16886,7 +17654,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="b">
+      <c r="A12" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -16906,7 +17674,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="b">
+      <c r="A13" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -16926,7 +17694,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="b">
+      <c r="A14" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -16946,7 +17714,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="b">
+      <c r="A15" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -16966,7 +17734,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="b">
+      <c r="A16" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -16986,7 +17754,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="b">
+      <c r="A17" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -17006,7 +17774,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="b">
+      <c r="A18" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -17026,7 +17794,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="b">
+      <c r="A19" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -17046,7 +17814,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="b">
+      <c r="A20" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -17066,7 +17834,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="b">
+      <c r="A21" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -17086,7 +17854,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="b">
+      <c r="A22" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -17106,7 +17874,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="b">
+      <c r="A23" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -17126,7 +17894,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="b">
+      <c r="A24" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -17146,7 +17914,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="b">
+      <c r="A25" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -17166,7 +17934,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="b">
+      <c r="A26" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -17186,7 +17954,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="b">
+      <c r="A27" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -17206,7 +17974,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="b">
+      <c r="A28" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -17226,7 +17994,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="b">
+      <c r="A29" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -17246,7 +18014,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="b">
+      <c r="A30" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -17266,7 +18034,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="b">
+      <c r="A31" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -17286,7 +18054,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="b">
+      <c r="A32" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -17342,7 +18110,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>1199</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -17362,7 +18130,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="b">
+      <c r="A4" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -17382,7 +18150,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="b">
+      <c r="A5" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -17402,7 +18170,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="b">
+      <c r="A6" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -17422,7 +18190,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="b">
+      <c r="A7" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -17442,7 +18210,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="b">
+      <c r="A8" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -17462,7 +18230,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="b">
+      <c r="A9" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -17482,7 +18250,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="b">
+      <c r="A10" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -17502,7 +18270,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="b">
+      <c r="A11" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -17522,7 +18290,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="b">
+      <c r="A12" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -17542,7 +18310,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="b">
+      <c r="A13" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -17562,7 +18330,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="b">
+      <c r="A14" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -17582,7 +18350,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="b">
+      <c r="A15" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -17602,7 +18370,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="b">
+      <c r="A16" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -17622,7 +18390,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="b">
+      <c r="A17" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -17642,7 +18410,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="b">
+      <c r="A18" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -17662,7 +18430,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="b">
+      <c r="A19" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -17682,7 +18450,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="b">
+      <c r="A20" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -17702,7 +18470,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="b">
+      <c r="A21" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -17722,7 +18490,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="b">
+      <c r="A22" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -17850,7 +18618,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>1199</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -17876,7 +18644,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="b">
+      <c r="A4" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -17902,7 +18670,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="b">
+      <c r="A5" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -17928,7 +18696,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="b">
+      <c r="A6" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -18171,8 +18939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B27A6-B2BE-4752-AD3E-56CC87D56996}">
   <dimension ref="A2:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -18198,7 +18966,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>1199</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -18224,7 +18992,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="b">
+      <c r="A4" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -18250,7 +19018,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="b">
+      <c r="A5" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -18276,7 +19044,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="b">
+      <c r="A6" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -18302,7 +19070,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="b">
+      <c r="A7" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -18328,7 +19096,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="b">
+      <c r="A8" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -18354,7 +19122,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="b">
+      <c r="A9" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -18380,7 +19148,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="b">
+      <c r="A10" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -18406,7 +19174,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="b">
+      <c r="A11" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -18432,7 +19200,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="b">
+      <c r="A12" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -18458,7 +19226,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="b">
+      <c r="A13" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -18484,7 +19252,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="b">
+      <c r="A14" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -18510,7 +19278,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="b">
+      <c r="A15" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -18536,7 +19304,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="b">
+      <c r="A16" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -18562,7 +19330,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="b">
+      <c r="A17" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -18588,7 +19356,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="b">
+      <c r="A18" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -18614,7 +19382,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="b">
+      <c r="A19" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -18640,7 +19408,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="b">
+      <c r="A20" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -18663,7 +19431,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="b">
+      <c r="A21" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -18686,7 +19454,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="b">
+      <c r="A22" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -18709,7 +19477,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="b">
+      <c r="A23" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -18732,7 +19500,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="b">
+      <c r="A24" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -18755,7 +19523,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="b">
+      <c r="A25" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -18778,7 +19546,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="b">
+      <c r="A26" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -18801,7 +19569,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="b">
+      <c r="A27" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -18824,7 +19592,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="b">
+      <c r="A28" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -18847,7 +19615,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="b">
+      <c r="A29" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -18870,7 +19638,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="b">
+      <c r="A30" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -18893,7 +19661,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="b">
+      <c r="A31" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -18916,7 +19684,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="b">
+      <c r="A32" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -18939,7 +19707,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="b">
+      <c r="A33" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -18962,7 +19730,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="b">
+      <c r="A34" s="39" t="b">
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -19174,10 +19942,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1241D939-87CE-4CB7-B24D-E7783591FC99}">
-  <dimension ref="B2:L74"/>
+  <dimension ref="A2:L74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19197,7 +19965,7 @@
     <col min="13" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>530</v>
       </c>
@@ -19205,7 +19973,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
@@ -19235,7 +20006,10 @@
         <v>540</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>361</v>
       </c>
@@ -19264,7 +20038,10 @@
         <v>552</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>532</v>
       </c>
@@ -19293,7 +20070,10 @@
         <v>554</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>534</v>
       </c>
@@ -19322,7 +20102,10 @@
         <v>556</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>536</v>
       </c>
@@ -19351,7 +20134,10 @@
         <v>558</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>538</v>
       </c>
@@ -19380,7 +20166,10 @@
         <v>560</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>540</v>
       </c>
@@ -19409,7 +20198,10 @@
         <v>562</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>542</v>
       </c>
@@ -19432,7 +20224,10 @@
         <v>569</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>544</v>
       </c>
@@ -19455,7 +20250,10 @@
         <v>570</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>546</v>
       </c>
@@ -19478,7 +20276,10 @@
         <v>571</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="b">
+        <v>1</v>
+      </c>
       <c r="B13" s="18" t="s">
         <v>486</v>
       </c>
@@ -19501,7 +20302,10 @@
         <v>572</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>549</v>
       </c>
@@ -19524,7 +20328,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -19537,7 +20341,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -20109,10 +20913,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06F588F-3DF9-4657-973A-1C383F75344A}">
-  <dimension ref="B2:I32"/>
+  <dimension ref="A2:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -20129,7 +20933,7 @@
     <col min="10" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>707</v>
       </c>
@@ -20137,7 +20941,10 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>1199</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
@@ -20160,7 +20967,10 @@
         <v>693</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>687</v>
       </c>
@@ -20183,7 +20993,10 @@
         <v>696</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>689</v>
       </c>
@@ -20206,7 +21019,10 @@
         <v>697</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>691</v>
       </c>
@@ -20229,7 +21045,10 @@
         <v>698</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>693</v>
       </c>
@@ -20252,7 +21071,10 @@
         <v>699</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="b">
+        <v>0</v>
+      </c>
       <c r="B8" s="18" t="s">
         <v>356</v>
       </c>
@@ -20275,7 +21097,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -20288,7 +21110,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -20301,7 +21123,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -20314,7 +21136,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -20327,7 +21149,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -20340,7 +21162,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -20353,7 +21175,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -20366,7 +21188,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
